--- a/hotels.xlsx
+++ b/hotels.xlsx
@@ -448,204 +448,204 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Belltown Inn</t>
+          <t>The Paramount Hotel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/belltown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-paramount-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Silver Cloud Hotel - Seattle Stadium</t>
+          <t>Warwick Seattle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-stadium.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/warwick-seattle-seattle-washington.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hyatt House Seattle Downtown</t>
+          <t>citizenM Seattle Pioneer Square</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/seattle-pioneer-square-operations-llc.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>citizenM Seattle South Lake Union</t>
+          <t>Mayflower Park Hotel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/citizenm-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/mayflower-park-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Mediterranean Inn</t>
+          <t>citizenM Seattle South Lake Union</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-mediterranean-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/citizenm-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mayflower Park Hotel</t>
+          <t>Belltown Inn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/mayflower-park-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/belltown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>citizenM Seattle Pioneer Square</t>
+          <t>Palihotel Seattle</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/seattle-pioneer-square-operations-llc.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/palihotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Level Seattle Downtown - South Lake Union</t>
+          <t>Crowne Plaza Seattle, an IHG Hotel with no Resort Fee</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/level-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/crowne-plaza-seattle-downtown-area.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Palihotel Seattle</t>
+          <t>Silver Cloud Hotel - Seattle Stadium</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/palihotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-stadium.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Paramount Hotel</t>
+          <t>The Mediterranean Inn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-paramount-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-mediterranean-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hotel Theodore</t>
+          <t>Staypineapple, The Maxwell Hotel, Seattle Center Seattle</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/roosevelt.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-maxwell.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Silver Cloud Hotel - Seattle Lake Union</t>
+          <t>Hotel Theodore</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-inn-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/roosevelt.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Seattle Gaslight Inn</t>
+          <t>Hyatt House Seattle Downtown</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/gaslight-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>La Quinta by Wyndham Seattle Downtown</t>
+          <t>Executive Hotel Pacific</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/laquinta.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/executive-pacific.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Staypineapple, The Maxwell Hotel, Seattle Center Seattle</t>
+          <t>Travelodge by Wyndham Seattle By The Space Needle</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-maxwell.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/travelodge-by-the-space-needle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Crowne Plaza Seattle, an IHG Hotel with no Resort Fee</t>
+          <t>La Quinta by Wyndham Seattle Downtown</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/crowne-plaza-seattle-downtown-area.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/laquinta.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>The Charter Hotel Seattle, Curio Collection By Hilton</t>
+          <t>Arctic Club Hotel</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-charter-seattle-curio-collection-by-hilton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/arctic-club-hotel.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -657,571 +657,571 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/marqueen.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/marqueen.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hyatt Place Seattle Downtown</t>
+          <t>Silver Cloud Hotel - Seattle Lake Union</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-place-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-inn-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hampton Inn &amp; Suites Seattle-Downtown</t>
+          <t>Coast Seattle Downtown Hotel by APA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hampton-inn-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hilton-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Reside Seattle Downtown, a Wyndham Residence</t>
+          <t>Best Western Plus Pioneer Square Hotel Downtown</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/mint-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/best-western-plus-pioneer-square.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Denny Park Hotel Seattle</t>
+          <t>Silver Cloud Hotel - Seattle Broadway</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/denny-park-hotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-broadway.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Warwick Seattle</t>
+          <t>Grand Hyatt Seattle</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/warwick-seattle-seattle-washington.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/grand-hyatt-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hotel Max</t>
+          <t>Hyatt Place Seattle Downtown</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/max-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-place-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Travelodge by Wyndham Seattle By The Space Needle</t>
+          <t>Hotel Sorrento</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/travelodge-by-the-space-needle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/sorrento.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lotte Hotel Seattle</t>
+          <t>Hyatt Regency Seattle</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/lotte-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=26&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-regency-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=26&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fairmont Olympic Hotel</t>
+          <t>Holiday Inn Seattle DWTN Lake Union, an IHG Hotel</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/fairmont-olympic.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=27&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/holiday-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=27&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hotel Ballard</t>
+          <t>Fairfield Inn &amp; Suites by Marriott Seattle Downtown/Seattle Center</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/ballard.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=28&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/fairfield-inn-amp-suites-seattle-downtown-47-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=28&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>The Sound Hotel Seattle Belltown, Tapestry Collection</t>
+          <t>Level Seattle Downtown - South Lake Union</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-sound-seattle-belltown-tapestry-collection.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=29&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/level-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=29&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Residence Inn by Marriott Seattle Downtown/Lake Union</t>
+          <t>Hotel Max</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/residence-inn-seattle-downtown-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=30&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/max-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=30&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Grand Hyatt Seattle</t>
+          <t>Hampton Inn &amp; Suites Seattle-Downtown</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/grand-hyatt-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=31&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hampton-inn-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=31&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Homewood Suites by Hilton Seattle Downtown</t>
+          <t>Silver Cloud Hotel - Seattle University of Washington District</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/homewood-suites-by-hilton-r-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=32&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-inn-university.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=32&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hilton Garden Inn Seattle Downtown</t>
+          <t>The State Hotel</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hilton-garden-inn-seattle-downtown-wa.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=33&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-state.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=33&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hotel Andra Seattle MGallery Hotel Collection</t>
+          <t>Hilton Garden Inn Seattle Downtown</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/andra.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=34&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hilton-garden-inn-seattle-downtown-wa.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=34&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hyatt Regency Seattle</t>
+          <t>Oxford Apartment by At Mine Hospitality</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-regency-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=35&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/oxford-apartment-by-at-mine-hospitality.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=35&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Staypineapple, Hotel FIVE, Downtown Seattle</t>
+          <t>The Baroness Hotel</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/r-inn-downtown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=36&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-baroness.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=36&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Residence Inn by Marriott Seattle Downtown Convention Center</t>
+          <t>Seattle Gaslight Inn</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-downtown-terry-avenue.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=37&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/gaslight-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=37&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SpringHill Suites Seattle Downtown</t>
+          <t>Residence Inn by Marriott Seattle Downtown/Lake Union</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/springhill-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=38&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/residence-inn-seattle-downtown-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=38&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Residence Inn by Marriott Seattle University District</t>
+          <t>Staypineapple, University Inn, University District Seattle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-university-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=39&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/university-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=39&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>The Alexis Royal Sonesta Hotel Seattle</t>
+          <t>The Charter Hotel Seattle, Curio Collection By Hilton</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/royal-sonesta-hotel-the-alexis.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=40&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-charter-seattle-curio-collection-by-hilton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=40&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Staybridge Suites Seattle - South Lake Union, an IHG Hotel</t>
+          <t>Reside Seattle Downtown, a Wyndham Residence</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=41&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/mint-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=41&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Staypineapple, University Inn, University District Seattle</t>
+          <t>The Sound Hotel Seattle Belltown, Tapestry Collection</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/university-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=42&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-sound-seattle-belltown-tapestry-collection.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=42&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Silver Cloud Hotel - Seattle Broadway</t>
+          <t>Residence Inn by Marriott Seattle Downtown Convention Center</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-broadway.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=43&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-downtown-terry-avenue.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=43&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Holiday Inn Seattle DWTN Lake Union, an IHG Hotel</t>
+          <t>Lotte Hotel Seattle</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/holiday-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=44&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/lotte-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=44&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Executive Hotel Pacific</t>
+          <t>Staybridge Suites Seattle - South Lake Union, an IHG Hotel</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/executive-pacific.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=45&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=45&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MOXY Seattle Downtown</t>
+          <t>Sheraton Grand Seattle</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/moxy-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=46&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/sheraton-seattle-seattle-washington.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=46&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cecil Bacon Manor</t>
+          <t>The Alexis Royal Sonesta Hotel Seattle</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/cecil-bacon-manor.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=47&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/royal-sonesta-hotel-the-alexis.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=47&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Embassy Suites By Hilton Seattle Downtown Pioneer Square</t>
+          <t>Fairmont Olympic Hotel</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/embassy-suites-by-hilton-seattle-downtown-pioneer-square.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=48&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/fairmont-olympic.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=48&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kimpton Hotel Monaco Seattle, an IHG Hotel</t>
+          <t>Hotel Andra Seattle MGallery Hotel Collection</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/monaco-seattle-a-kimpton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=49&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/andra.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=49&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>King's Inn</t>
+          <t>Hotel Ballard</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/kings-inn-seattle1.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=50&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103974&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/ballard.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=50&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Oxford Apartment by At Mine Hospitality</t>
+          <t>Staypineapple, Hotel FIVE, Downtown Seattle</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/oxford-apartment-by-at-mine-hospitality.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=51&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/r-inn-downtown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=51&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fairfield Inn &amp; Suites by Marriott Seattle Downtown/Seattle Center</t>
+          <t>Denny Park Hotel Seattle</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/fairfield-inn-amp-suites-seattle-downtown-47-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=52&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/denny-park-hotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=52&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Renaissance Seattle Hotel</t>
+          <t>Kimpton Hotel Monaco Seattle, an IHG Hotel</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/renaissance-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=53&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/monaco-seattle-a-kimpton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=53&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Astra Hotel, Seattle, a Tribute Portfolio Hotel by Marriott</t>
+          <t>Homewood Suites by Hilton Seattle Downtown</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/astra-seattle-a-tribute-portfolio.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=54&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/homewood-suites-by-hilton-r-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=54&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kimpton Palladian Hotel, an IHG Hotel</t>
+          <t>MOXY Seattle Downtown</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/palladian-a-kimpton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=55&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/moxy-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=55&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>W Seattle</t>
+          <t>Embassy Suites By Hilton Seattle Downtown Pioneer Square</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/w-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=56&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/embassy-suites-by-hilton-seattle-downtown-pioneer-square.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=56&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Graduate by Hilton Seattle</t>
+          <t>Staybridge Suites Seattle - Fremont, an IHG Hotel</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/graduate-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=57&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-u-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=57&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Arctic Club Hotel</t>
+          <t>Staypineapple, Watertown, University District Seattle</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/arctic-club-hotel.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=58&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/watertown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=58&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Hilton Motif Seattle</t>
+          <t>Georgetown Inn Seattle</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hilton-motif-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=59&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/georgetown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=59&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Staypineapple, Watertown, University District Seattle</t>
+          <t>Renaissance Seattle Hotel</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/watertown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=60&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/renaissance-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=60&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sonder at Pivot</t>
+          <t>Residence Inn by Marriott Seattle University District</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/sonder-at-pivot.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=61&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-university-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=61&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EVEN Hotel Seattle Downtown - Lake Union, an IHG Hotel</t>
+          <t>W Seattle</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/even-hotels-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=62&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/w-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=62&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Green Tortoise Hostel Seattle</t>
+          <t>SpringHill Suites Seattle Downtown</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/green-tortoise-hostel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=63&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/springhill-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=63&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>The Westin Seattle</t>
+          <t>Hilton Motif Seattle</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-westin-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=64&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hilton-motif-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=64&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Hampton Inn &amp; Suites by Hilton Seattle/Northgate</t>
+          <t>One bedroom luxury apartment (Gym, Wifi, Parking, Rooftop Deck)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hampton-inn-suites-by-hilton-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=65&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/one-bedroom-luxury-apartment-gym-wifi-parking-rooftop-deck.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=65&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1233,115 +1233,115 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/courtyard-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=66&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/courtyard-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=66&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Seattle Among The Trees: in Belltown w/Parking!</t>
+          <t>EVEN Hotel Seattle Downtown - Lake Union, an IHG Hotel</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/seattle-among-the-trees-in-belltown-w-parking.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=67&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/even-hotels-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=67&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>One bedroom luxury apartment (Gym, Wifi, Parking, Rooftop Deck)</t>
+          <t>Four Points by Sheraton Downtown Seattle Center</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/one-bedroom-luxury-apartment-gym-wifi-parking-rooftop-deck.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=68&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/comfort-suites-downtown-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=68&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Private Room with 2 Twin Beds- Air Conditioning and Shared Bathrooms</t>
+          <t>Inn at the Market</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/wish-vacation-rentals.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=69&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/inn-at-the-market.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=69&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>City Water View Oasis with Pool &amp; Gym near Cruise in Heart of Seattle</t>
+          <t>Hyatt at Olive 8</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/city-47-water-view-oasis-pool-amp-gym-in-heart-of-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=70&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-at-olive-8.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=70&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Courtyard by Marriott Seattle SeaTac Airport</t>
+          <t>The Grove West Seattle Inn</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/wingate-by-wyndham-seatac-airport.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=71&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/seattle-3512-southwest-alaska-street.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=71&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Four Points by Sheraton Downtown Seattle Center</t>
+          <t>Sonder at Pivot</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/comfort-suites-downtown-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=72&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/sonder-at-pivot.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=72&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Georgetown Inn Seattle</t>
+          <t>Hampton Inn &amp; Suites by Hilton Seattle/Northgate</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/georgetown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=73&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hampton-inn-suites-by-hilton-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=73&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Staybridge Suites Seattle - Fremont, an IHG Hotel</t>
+          <t>Graduate by Hilton Seattle</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-u-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=74&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/graduate-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=74&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cozy Downtown Condo Retreat with Space Needle View</t>
+          <t>Green Tortoise Hostel Seattle</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/cozy-downtown-condo-retreat-with-space-needle-view.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=75&amp;sr_order=popularity&amp;srpvid=9ba683306a8d0227&amp;srepoch=1729103977&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/green-tortoise-hostel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=75&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>

--- a/hotels.xlsx
+++ b/hotels.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-paramount-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-paramount-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/warwick-seattle-seattle-washington.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/warwick-seattle-seattle-washington.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/seattle-pioneer-square-operations-llc.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/seattle-pioneer-square-operations-llc.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/mayflower-park-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/mayflower-park-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/citizenm-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/citizenm-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/belltown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/belltown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/palihotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/palihotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/crowne-plaza-seattle-downtown-area.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/crowne-plaza-seattle-downtown-area.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-stadium.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-stadium.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-mediterranean-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-mediterranean-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-maxwell.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-maxwell.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/roosevelt.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/roosevelt.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/executive-pacific.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/executive-pacific.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/travelodge-by-the-space-needle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/travelodge-by-the-space-needle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/laquinta.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/laquinta.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/arctic-club-hotel.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/arctic-club-hotel.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/marqueen.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/marqueen.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-inn-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-inn-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hilton-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hilton-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/best-western-plus-pioneer-square.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/best-western-plus-pioneer-square.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-broadway.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-broadway.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/grand-hyatt-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/grand-hyatt-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-place-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-place-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/sorrento.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/sorrento.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-regency-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=26&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-regency-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=26&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/holiday-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=27&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/holiday-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=27&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/fairfield-inn-amp-suites-seattle-downtown-47-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=28&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/fairfield-inn-amp-suites-seattle-downtown-47-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=28&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/level-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=29&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/level-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=29&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/max-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=30&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/max-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=30&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hampton-inn-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=31&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hampton-inn-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=31&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-inn-university.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=32&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-inn-university.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=32&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-state.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=33&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-state.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=33&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hilton-garden-inn-seattle-downtown-wa.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=34&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hilton-garden-inn-seattle-downtown-wa.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=34&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/oxford-apartment-by-at-mine-hospitality.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=35&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/oxford-apartment-by-at-mine-hospitality.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=35&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-baroness.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=36&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-baroness.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=36&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/gaslight-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=37&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/gaslight-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=37&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/residence-inn-seattle-downtown-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=38&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/residence-inn-seattle-downtown-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=38&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/university-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=39&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/university-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=39&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-charter-seattle-curio-collection-by-hilton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=40&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-charter-seattle-curio-collection-by-hilton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=40&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/mint-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=41&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/mint-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=41&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-sound-seattle-belltown-tapestry-collection.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=42&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-sound-seattle-belltown-tapestry-collection.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=42&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-downtown-terry-avenue.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=43&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-downtown-terry-avenue.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=43&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/lotte-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=44&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/lotte-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=44&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=45&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=45&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/sheraton-seattle-seattle-washington.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=46&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/sheraton-seattle-seattle-washington.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=46&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/royal-sonesta-hotel-the-alexis.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=47&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/royal-sonesta-hotel-the-alexis.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=47&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/fairmont-olympic.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=48&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/fairmont-olympic.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=48&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/andra.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=49&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/andra.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=49&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/ballard.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=50&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106063&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/ballard.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=50&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/r-inn-downtown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=51&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/r-inn-downtown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=51&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/denny-park-hotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=52&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/denny-park-hotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=52&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/monaco-seattle-a-kimpton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=53&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/monaco-seattle-a-kimpton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=53&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/homewood-suites-by-hilton-r-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=54&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/homewood-suites-by-hilton-r-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=54&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/moxy-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=55&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/moxy-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=55&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/embassy-suites-by-hilton-seattle-downtown-pioneer-square.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=56&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/embassy-suites-by-hilton-seattle-downtown-pioneer-square.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=56&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-u-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=57&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-u-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=57&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/watertown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=58&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/watertown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=58&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/georgetown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=59&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/georgetown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=59&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/renaissance-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=60&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/renaissance-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=60&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-university-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=61&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-university-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=61&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/w-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=62&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/w-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=62&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/springhill-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=63&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/springhill-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=63&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hilton-motif-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=64&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hilton-motif-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=64&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/one-bedroom-luxury-apartment-gym-wifi-parking-rooftop-deck.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=65&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/one-bedroom-luxury-apartment-gym-wifi-parking-rooftop-deck.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=65&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/courtyard-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=66&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/courtyard-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=66&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/even-hotels-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=67&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/even-hotels-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=67&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/comfort-suites-downtown-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=68&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/comfort-suites-downtown-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=68&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/inn-at-the-market.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=69&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/inn-at-the-market.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=69&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-at-olive-8.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=70&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-at-olive-8.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=70&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/seattle-3512-southwest-alaska-street.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=71&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/seattle-3512-southwest-alaska-street.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=71&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/sonder-at-pivot.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=72&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/sonder-at-pivot.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=72&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hampton-inn-suites-by-hilton-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=73&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hampton-inn-suites-by-hilton-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=73&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/graduate-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=74&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/graduate-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=74&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/green-tortoise-hostel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=75&amp;sr_order=popularity&amp;srpvid=1a818744c3f0078a&amp;srepoch=1729106072&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/green-tortoise-hostel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=75&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>

--- a/hotels.xlsx
+++ b/hotels.xlsx
@@ -448,132 +448,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Paramount Hotel</t>
+          <t>Belltown Inn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-paramount-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/belltown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Warwick Seattle</t>
+          <t>Silver Cloud Hotel - Seattle Stadium</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/warwick-seattle-seattle-washington.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-stadium.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>citizenM Seattle Pioneer Square</t>
+          <t>Hyatt House Seattle Downtown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/seattle-pioneer-square-operations-llc.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mayflower Park Hotel</t>
+          <t>citizenM Seattle South Lake Union</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/mayflower-park-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/citizenm-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>citizenM Seattle South Lake Union</t>
+          <t>citizenM Seattle Pioneer Square</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/citizenm-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/seattle-pioneer-square-operations-llc.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Belltown Inn</t>
+          <t>The Mediterranean Inn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/belltown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-mediterranean-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Palihotel Seattle</t>
+          <t>Mayflower Park Hotel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/palihotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/mayflower-park-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Crowne Plaza Seattle, an IHG Hotel with no Resort Fee</t>
+          <t>Palihotel Seattle</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/crowne-plaza-seattle-downtown-area.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/palihotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Silver Cloud Hotel - Seattle Stadium</t>
+          <t>The Paramount Hotel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-stadium.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-paramount-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Mediterranean Inn</t>
+          <t>Level Seattle Downtown - South Lake Union</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-mediterranean-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/level-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Staypineapple, The Maxwell Hotel, Seattle Center Seattle</t>
+          <t>Silver Cloud Hotel - Seattle Lake Union</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-maxwell.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-inn-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
@@ -585,763 +585,763 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/roosevelt.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/roosevelt.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hyatt House Seattle Downtown</t>
+          <t>Crowne Plaza Seattle, an IHG Hotel with no Resort Fee</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/crowne-plaza-seattle-downtown-area.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Executive Hotel Pacific</t>
+          <t>Hyatt Place Seattle Downtown</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/executive-pacific.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-place-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Travelodge by Wyndham Seattle By The Space Needle</t>
+          <t>The Charter Hotel Seattle, Curio Collection By Hilton</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/travelodge-by-the-space-needle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-charter-seattle-curio-collection-by-hilton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>La Quinta by Wyndham Seattle Downtown</t>
+          <t>Seattle Gaslight Inn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/laquinta.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/gaslight-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Arctic Club Hotel</t>
+          <t>Hyatt Regency Seattle</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/arctic-club-hotel.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hyatt-regency-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MarQueen Hotel</t>
+          <t>La Quinta by Wyndham Seattle Downtown</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/marqueen.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/laquinta.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Silver Cloud Hotel - Seattle Lake Union</t>
+          <t>Travelodge by Wyndham Seattle By The Space Needle</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-inn-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/travelodge-by-the-space-needle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Coast Seattle Downtown Hotel by APA</t>
+          <t>Staypineapple, The Maxwell Hotel, Seattle Center Seattle</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hilton-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-maxwell.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Best Western Plus Pioneer Square Hotel Downtown</t>
+          <t>Hampton Inn &amp; Suites Seattle-Downtown</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/best-western-plus-pioneer-square.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hampton-inn-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Silver Cloud Hotel - Seattle Broadway</t>
+          <t>Hotel Max</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-broadway.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/max-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Grand Hyatt Seattle</t>
+          <t>Warwick Seattle</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/grand-hyatt-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/warwick-seattle-seattle-washington.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hyatt Place Seattle Downtown</t>
+          <t>MarQueen Hotel</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-place-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/marqueen.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hotel Sorrento</t>
+          <t>Reside Seattle Downtown, a Wyndham Residence</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/sorrento.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/mint-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hyatt Regency Seattle</t>
+          <t>Denny Park Hotel Seattle</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-regency-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=26&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/denny-park-hotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=26&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Holiday Inn Seattle DWTN Lake Union, an IHG Hotel</t>
+          <t>Lotte Hotel Seattle</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/holiday-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=27&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/lotte-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=27&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fairfield Inn &amp; Suites by Marriott Seattle Downtown/Seattle Center</t>
+          <t>Hotel Ballard</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/fairfield-inn-amp-suites-seattle-downtown-47-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=28&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/ballard.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=28&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Level Seattle Downtown - South Lake Union</t>
+          <t>Hilton Garden Inn Seattle Downtown</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/level-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=29&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hilton-garden-inn-seattle-downtown-wa.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=29&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hotel Max</t>
+          <t>Homewood Suites by Hilton Seattle Downtown</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/max-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=30&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/homewood-suites-by-hilton-r-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=30&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hampton Inn &amp; Suites Seattle-Downtown</t>
+          <t>The Sound Hotel Seattle Belltown, Tapestry Collection</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hampton-inn-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=31&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-sound-seattle-belltown-tapestry-collection.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=31&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Silver Cloud Hotel - Seattle University of Washington District</t>
+          <t>Grand Hyatt Seattle</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/silver-cloud-inn-university.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=32&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/grand-hyatt-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=32&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>The State Hotel</t>
+          <t>Residence Inn by Marriott Seattle Downtown/Lake Union</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-state.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=33&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/residence-inn-seattle-downtown-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=33&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hilton Garden Inn Seattle Downtown</t>
+          <t>Silver Cloud Hotel - Seattle Broadway</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hilton-garden-inn-seattle-downtown-wa.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=34&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/silver-cloud-broadway.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=34&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Oxford Apartment by At Mine Hospitality</t>
+          <t>MOXY Seattle Downtown</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/oxford-apartment-by-at-mine-hospitality.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=35&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/moxy-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=35&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>The Baroness Hotel</t>
+          <t>Executive Hotel Pacific</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-baroness.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=36&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/executive-pacific.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=36&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Seattle Gaslight Inn</t>
+          <t>King's Inn</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/gaslight-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=37&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/kings-inn-seattle1.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=37&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Residence Inn by Marriott Seattle Downtown/Lake Union</t>
+          <t>Hotel Andra Seattle MGallery Hotel Collection</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/residence-inn-seattle-downtown-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=38&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/andra.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=38&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Staypineapple, University Inn, University District Seattle</t>
+          <t>Staypineapple, Hotel FIVE, Downtown Seattle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/university-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=39&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/r-inn-downtown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=39&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>The Charter Hotel Seattle, Curio Collection By Hilton</t>
+          <t>Residence Inn by Marriott Seattle University District</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-charter-seattle-curio-collection-by-hilton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=40&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-university-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=40&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Reside Seattle Downtown, a Wyndham Residence</t>
+          <t>Residence Inn by Marriott Seattle Downtown Convention Center</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/mint-house-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=41&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-downtown-terry-avenue.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=41&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The Sound Hotel Seattle Belltown, Tapestry Collection</t>
+          <t>Fairmont Olympic Hotel</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/the-sound-seattle-belltown-tapestry-collection.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=42&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/fairmont-olympic.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=42&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Residence Inn by Marriott Seattle Downtown Convention Center</t>
+          <t>Staybridge Suites Seattle - South Lake Union, an IHG Hotel</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-downtown-terry-avenue.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=43&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=43&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lotte Hotel Seattle</t>
+          <t>Oxford Apartment by At Mine Hospitality</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/lotte-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=44&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/oxford-apartment-by-at-mine-hospitality.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=44&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Staybridge Suites Seattle - South Lake Union, an IHG Hotel</t>
+          <t>SpringHill Suites Seattle Downtown</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=45&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/springhill-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=45&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sheraton Grand Seattle</t>
+          <t>Holiday Inn Seattle DWTN Lake Union, an IHG Hotel</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/sheraton-seattle-seattle-washington.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=46&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/holiday-inn-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=46&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>The Alexis Royal Sonesta Hotel Seattle</t>
+          <t>Staypineapple, University Inn, University District Seattle</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/royal-sonesta-hotel-the-alexis.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=47&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/university-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=47&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fairmont Olympic Hotel</t>
+          <t>The Alexis Royal Sonesta Hotel Seattle</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/fairmont-olympic.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=48&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/royal-sonesta-hotel-the-alexis.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=48&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hotel Andra Seattle MGallery Hotel Collection</t>
+          <t>Embassy Suites By Hilton Seattle Downtown Pioneer Square</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/andra.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=49&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/embassy-suites-by-hilton-seattle-downtown-pioneer-square.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=49&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Hotel Ballard</t>
+          <t>Sonder at Pivot</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/ballard.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=50&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106513&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/sonder-at-pivot.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=50&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110199&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Staypineapple, Hotel FIVE, Downtown Seattle</t>
+          <t>Fairfield Inn &amp; Suites by Marriott Seattle Downtown/Seattle Center</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/r-inn-downtown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=51&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/fairfield-inn-amp-suites-seattle-downtown-47-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=51&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Denny Park Hotel Seattle</t>
+          <t>Kimpton Hotel Monaco Seattle, an IHG Hotel</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/denny-park-hotel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=52&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/monaco-seattle-a-kimpton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=52&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Kimpton Hotel Monaco Seattle, an IHG Hotel</t>
+          <t>Renaissance Seattle Hotel</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/monaco-seattle-a-kimpton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=53&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/renaissance-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=53&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Homewood Suites by Hilton Seattle Downtown</t>
+          <t>Arctic Club Hotel</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/homewood-suites-by-hilton-r-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=54&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/arctic-club-hotel.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=54&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MOXY Seattle Downtown</t>
+          <t>Astra Hotel, Seattle, a Tribute Portfolio Hotel by Marriott</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/moxy-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=55&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/astra-seattle-a-tribute-portfolio.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=55&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Embassy Suites By Hilton Seattle Downtown Pioneer Square</t>
+          <t>City Water View Oasis with Pool &amp; Gym near Cruise in Heart of Seattle</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/embassy-suites-by-hilton-seattle-downtown-pioneer-square.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=56&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/city-47-water-view-oasis-pool-amp-gym-in-heart-of-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=56&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Staybridge Suites Seattle - Fremont, an IHG Hotel</t>
+          <t>Hilton Motif Seattle</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-u-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=57&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hilton-motif-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=57&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Staypineapple, Watertown, University District Seattle</t>
+          <t>W Seattle</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/watertown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=58&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/w-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=58&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Georgetown Inn Seattle</t>
+          <t>Kimpton Palladian Hotel, an IHG Hotel</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/georgetown-inn.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=59&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/palladian-a-kimpton.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=59&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Renaissance Seattle Hotel</t>
+          <t>Staypineapple, Watertown, University District Seattle</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/renaissance-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=60&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/watertown-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=60&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Residence Inn by Marriott Seattle University District</t>
+          <t>Graduate by Hilton Seattle</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/residence-inn-by-marriott-seattle-university-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=61&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/graduate-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=61&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>W Seattle</t>
+          <t>Cecil Bacon Manor</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/w-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=62&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/cecil-bacon-manor.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=62&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SpringHill Suites Seattle Downtown</t>
+          <t>EVEN Hotel Seattle Downtown - Lake Union, an IHG Hotel</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/springhill-suites-seattle-downtown.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=63&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/even-hotels-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=63&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Hilton Motif Seattle</t>
+          <t>The Westin Seattle</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hilton-motif-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=64&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-westin-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=64&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>One bedroom luxury apartment (Gym, Wifi, Parking, Rooftop Deck)</t>
+          <t>Courtyard by Marriott Seattle Northgate</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/one-bedroom-luxury-apartment-gym-wifi-parking-rooftop-deck.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=65&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/courtyard-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=65&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Courtyard by Marriott Seattle Northgate</t>
+          <t>Hampton Inn &amp; Suites by Hilton Seattle/Northgate</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/courtyard-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=66&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hampton-inn-suites-by-hilton-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=66&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EVEN Hotel Seattle Downtown - Lake Union, an IHG Hotel</t>
+          <t>Green Tortoise Hostel Seattle</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/even-hotels-seattle-south-lake-union.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=67&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/green-tortoise-hostel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=67&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Four Points by Sheraton Downtown Seattle Center</t>
+          <t>Staybridge Suites Seattle - Fremont, an IHG Hotel</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/comfort-suites-downtown-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=68&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/staybridge-suites-seattle-u-district.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=68&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Inn at the Market</t>
+          <t>Courtyard by Marriott Seattle SeaTac Airport</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/inn-at-the-market.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=69&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/wingate-by-wyndham-seatac-airport.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=69&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hyatt at Olive 8</t>
+          <t>Private Room with 2 Twin Beds- Air Conditioning and Shared Bathrooms</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hyatt-at-olive-8.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=70&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/wish-vacation-rentals.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=70&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>The Grove West Seattle Inn</t>
+          <t>Seattle Among The Trees: in Belltown w/Parking!</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/seattle-3512-southwest-alaska-street.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=71&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/seattle-among-the-trees-in-belltown-w-parking.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=71&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sonder at Pivot</t>
+          <t>One bedroom luxury apartment (Gym, Wifi, Parking, Rooftop Deck)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/sonder-at-pivot.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=72&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/one-bedroom-luxury-apartment-gym-wifi-parking-rooftop-deck.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=72&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hampton Inn &amp; Suites by Hilton Seattle/Northgate</t>
+          <t>American Hotel Hostel</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/hampton-inn-suites-by-hilton-seattle-northgate.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=73&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/hi-seattle-at-the-american.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=73&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Graduate by Hilton Seattle</t>
+          <t>The State Hotel</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/graduate-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=74&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/the-state.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=74&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from=searchresults</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Green Tortoise Hostel Seattle</t>
+          <t>Four Points by Sheraton Downtown Seattle Center</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/us/green-tortoise-hostel-seattle.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=75&amp;sr_order=popularity&amp;srpvid=f8b0882556950635&amp;srepoch=1729106521&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/us/comfort-suites-downtown-seattle-center.html?label=gen173nr-1FCAEoggI46AdIM1gEaKACiAEBmAExuAEXyAEM2AEB6AEB-AECiAIBqAIDuAKagsC4BsACAdICJGU4NTg1YjczLWZmMjktNDliMi1hNjI5LTUyMjUyNjRhZmUxYdgCBeACAQ&amp;sid=9e64db50aa327e87b9a62d8967e4f17f&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;dest_id=20144883&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=75&amp;sr_order=popularity&amp;srpvid=c6928f58b836026a&amp;srepoch=1729110207&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
     </row>
